--- a/excel/07_08_2025.xlsx
+++ b/excel/07_08_2025.xlsx
@@ -479,14 +479,14 @@
       <c r="A8" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>Posted</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>09/08/2025</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>17/08/2025</t>
+          <t>19/08/2025</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>27/08/2025</t>
+          <t>29/08/2025</t>
         </is>
       </c>
     </row>
